--- a/cluster_mumbai.xlsx
+++ b/cluster_mumbai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>384</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
@@ -494,77 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>371</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
